--- a/luban_study/Luban/MiniDesignerConfigsTemplate/Datas/__beans__.xlsx
+++ b/luban_study/Luban/MiniDesignerConfigsTemplate/Datas/__beans__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12450"/>
+    <workbookView windowWidth="28800" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
   <si>
     <t>##var</t>
   </si>
@@ -67,91 +67,73 @@
     <t>注释</t>
   </si>
   <si>
-    <t>test.TestExcelBean1</t>
-  </si>
-  <si>
-    <t>这是个测试excel结构</t>
-  </si>
-  <si>
-    <t>x1</t>
+    <t>Datas.Equip</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>装备</t>
+  </si>
+  <si>
+    <t>Id</t>
   </si>
   <si>
     <t>int</t>
   </si>
   <si>
-    <t>最高品质</t>
-  </si>
-  <si>
-    <t>x2</t>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Color</t>
+  </si>
+  <si>
+    <t>Constants.Color</t>
+  </si>
+  <si>
+    <t>颜色</t>
+  </si>
+  <si>
+    <t>Quality</t>
+  </si>
+  <si>
+    <t>Constants.Quality</t>
+  </si>
+  <si>
+    <t>品质</t>
+  </si>
+  <si>
+    <t>Name</t>
   </si>
   <si>
     <t>string</t>
   </si>
   <si>
-    <t>黑色的</t>
-  </si>
-  <si>
-    <t>x3</t>
-  </si>
-  <si>
-    <t>蓝色的</t>
-  </si>
-  <si>
-    <t>x4</t>
-  </si>
-  <si>
-    <t>float</t>
-  </si>
-  <si>
-    <t>最差品质</t>
-  </si>
-  <si>
-    <t>test.TestExcelBean2</t>
-  </si>
-  <si>
-    <t>y1</t>
-  </si>
-  <si>
-    <t>y2</t>
-  </si>
-  <si>
-    <t>y3</t>
-  </si>
-  <si>
-    <t>test.Shape</t>
-  </si>
-  <si>
-    <t>test.Circle</t>
-  </si>
-  <si>
-    <t>Shape</t>
-  </si>
-  <si>
-    <t>圆</t>
-  </si>
-  <si>
-    <t>radius</t>
-  </si>
-  <si>
-    <t>半径</t>
-  </si>
-  <si>
-    <t>test.Rectangle</t>
-  </si>
-  <si>
-    <t>矩形</t>
-  </si>
-  <si>
-    <t>width</t>
-  </si>
-  <si>
-    <t>宽度</t>
-  </si>
-  <si>
-    <t>height</t>
-  </si>
-  <si>
-    <t>高度</t>
+    <t>装备名称</t>
+  </si>
+  <si>
+    <t>Datas.Weapon</t>
+  </si>
+  <si>
+    <t>武器</t>
+  </si>
+  <si>
+    <t>ATK</t>
+  </si>
+  <si>
+    <t>攻击</t>
+  </si>
+  <si>
+    <t>DEF</t>
+  </si>
+  <si>
+    <t>防御</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>灵巧</t>
   </si>
 </sst>
 </file>
@@ -160,82 +142,136 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -243,88 +279,27 @@
       <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -333,79 +308,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -417,108 +488,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -527,35 +514,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -577,10 +561,17 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -589,23 +580,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -624,220 +615,234 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="29" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="23" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="31" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1109,252 +1114,239 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="3" width="20.6285714285714" customWidth="1"/>
-    <col min="4" max="4" width="12.247619047619" customWidth="1"/>
+    <col min="2" max="3" width="20.625" customWidth="1"/>
+    <col min="4" max="4" width="12.25" customWidth="1"/>
     <col min="5" max="6" width="15" customWidth="1"/>
-    <col min="7" max="8" width="13.5047619047619" customWidth="1"/>
-    <col min="9" max="9" width="10.3714285714286" customWidth="1"/>
+    <col min="7" max="8" width="13.5083333333333" customWidth="1"/>
+    <col min="9" max="9" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G2" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
-      <c r="A3" t="s">
+    <row r="3" spans="1:11">
+      <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C3" s="2"/>
+      <c r="D3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G3" t="s">
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="K3" s="2"/>
     </row>
     <row r="4" spans="2:10">
       <c r="B4" t="s">
         <v>17</v>
       </c>
+      <c r="C4"/>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="7:10">
       <c r="G5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="7:10">
       <c r="G6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H6" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="J6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="7:10">
       <c r="G7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="2:10">
       <c r="B8" t="s">
-        <v>30</v>
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="G8" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J8" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="7:10">
       <c r="G9" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J9" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="7:10">
       <c r="G10" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H10" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="J10" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="2:10">
-      <c r="B11" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
     </row>
     <row r="12" spans="2:10">
-      <c r="B12" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3" t="s">
-        <v>39</v>
-      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
     </row>
     <row r="13" spans="2:10">
-      <c r="B13" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3" t="s">
-        <v>43</v>
-      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
     </row>
     <row r="14" spans="2:10">
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3" t="s">
-        <v>45</v>
-      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/luban_study/Luban/MiniDesignerConfigsTemplate/Datas/__beans__.xlsx
+++ b/luban_study/Luban/MiniDesignerConfigsTemplate/Datas/__beans__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12420"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="47">
   <si>
     <t>##var</t>
   </si>
@@ -67,7 +67,25 @@
     <t>注释</t>
   </si>
   <si>
-    <t>Datas.Equip</t>
+    <t>Skills.SkillCfg</t>
+  </si>
+  <si>
+    <t>skill_id</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>skill_time</t>
+  </si>
+  <si>
+    <t>skill_name</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>Equips.Equip</t>
   </si>
   <si>
     <t>,</t>
@@ -79,9 +97,6 @@
     <t>Id</t>
   </si>
   <si>
-    <t>int</t>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
@@ -106,13 +121,10 @@
     <t>Name</t>
   </si>
   <si>
-    <t>string</t>
-  </si>
-  <si>
     <t>装备名称</t>
   </si>
   <si>
-    <t>Datas.Weapon</t>
+    <t>Equips.Weapon</t>
   </si>
   <si>
     <t>武器</t>
@@ -134,6 +146,15 @@
   </si>
   <si>
     <t>灵巧</t>
+  </si>
+  <si>
+    <t>Skill</t>
+  </si>
+  <si>
+    <t>(list#sep=,),int#ref=Datas.TbSkillCfg</t>
+  </si>
+  <si>
+    <t>技能组</t>
   </si>
 </sst>
 </file>
@@ -141,9 +162,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -171,15 +192,73 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -187,14 +266,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -209,97 +296,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -314,193 +335,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -530,6 +545,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -540,6 +570,48 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -561,63 +633,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -634,10 +649,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -646,133 +661,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -783,7 +798,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="31" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1111,10 +1126,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1123,7 +1138,7 @@
     <col min="4" max="4" width="12.25" customWidth="1"/>
     <col min="5" max="6" width="15" customWidth="1"/>
     <col min="7" max="8" width="13.5083333333333" customWidth="1"/>
-    <col min="9" max="9" width="10.375" customWidth="1"/>
+    <col min="9" max="9" width="18.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -1205,137 +1220,148 @@
       </c>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="2:10">
-      <c r="B4" t="s">
+    <row r="4" spans="2:9">
+      <c r="B4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C4"/>
-      <c r="D4" t="s">
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" t="s">
+      <c r="H4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G4" t="s">
+      <c r="I4" s="4"/>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="4"/>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J4" t="s">
+      <c r="H6" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="7:10">
-      <c r="G5" t="s">
+      <c r="I6" s="4"/>
+    </row>
+    <row r="7" spans="2:10">
+      <c r="B7" t="s">
         <v>23</v>
       </c>
-      <c r="H5" t="s">
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="J5" t="s">
+      <c r="E7" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="6" spans="7:10">
-      <c r="G6" t="s">
+      <c r="G7" t="s">
         <v>26</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" t="s">
         <v>27</v>
       </c>
-      <c r="J6" t="s">
+    </row>
+    <row r="8" spans="7:10">
+      <c r="G8" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="7" spans="7:10">
-      <c r="G7" t="s">
+      <c r="H8" t="s">
         <v>29</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I8"/>
+      <c r="J8" t="s">
         <v>30</v>
-      </c>
-      <c r="J7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10">
-      <c r="B8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H8" t="s">
-        <v>21</v>
-      </c>
-      <c r="J8" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="9" spans="7:10">
       <c r="G9" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H9" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="J9" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="7:10">
       <c r="G10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" t="s">
         <v>38</v>
       </c>
-      <c r="H10" t="s">
-        <v>21</v>
-      </c>
-      <c r="J10" t="s">
+      <c r="H11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="2:10">
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-    </row>
-    <row r="12" spans="2:10">
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-    </row>
-    <row r="13" spans="2:10">
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
+    <row r="12" spans="7:10">
+      <c r="G12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="7:10">
+      <c r="G13" t="s">
+        <v>42</v>
+      </c>
+      <c r="H13" t="s">
+        <v>19</v>
+      </c>
+      <c r="J13" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="14" spans="2:10">
       <c r="B14" s="4"/>
@@ -1343,10 +1369,65 @@
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
+      <c r="G14" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
+      <c r="J14" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9">
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+    </row>
+    <row r="16" spans="2:9">
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+    </row>
+    <row r="17" spans="2:9">
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+    </row>
+    <row r="18" spans="2:9">
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="I18" s="4"/>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
